--- a/LinhTinh/LƯƠNG VÀ BẬC LƯƠNG.xlsx
+++ b/LinhTinh/LƯƠNG VÀ BẬC LƯƠNG.xlsx
@@ -8,10 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Thang lương" sheetId="1" r:id="rId1"/>
-    <sheet name="Lương tháng 06" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>HỆ THỐNG THANG LƯƠNG, BẢNG LƯƠNG</t>
   </si>
@@ -137,12 +136,6 @@
     <t>Độc lập – Tự do – Hạnh Phúc</t>
   </si>
   <si>
-    <t>Chi nhánh Miền Tây - Công ty CP CN&amp;XD Quang Minh</t>
-  </si>
-  <si>
-    <t>Địa chỉ: Đường 1-5 phường Hiệp Thành, tp Ngã Bảy, Hậu Giang</t>
-  </si>
-  <si>
     <t xml:space="preserve"> CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
   <si>
@@ -201,72 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Bảo vệ</t>
-  </si>
-  <si>
-    <t>Họ và tên</t>
-  </si>
-  <si>
-    <t>Chức danh</t>
-  </si>
-  <si>
-    <t>Phan Thanh Hoài</t>
-  </si>
-  <si>
-    <t>Trương Minh Vương</t>
-  </si>
-  <si>
-    <t>Trịnh Trọng Nguyễn</t>
-  </si>
-  <si>
-    <t>Kế Toán</t>
-  </si>
-  <si>
-    <t>Trần Anh Cứng</t>
-  </si>
-  <si>
-    <t>Trưởng Phòng KH-HC</t>
-  </si>
-  <si>
-    <t>Lê Văn Quý</t>
-  </si>
-  <si>
-    <t>Trưởng phòng Sx</t>
-  </si>
-  <si>
-    <t>Phan Thành Được</t>
-  </si>
-  <si>
-    <t>Kĩ thuật viên Cơ khí</t>
-  </si>
-  <si>
-    <t>Nguyễn Kiến Quốc</t>
-  </si>
-  <si>
-    <t>Lương</t>
-  </si>
-  <si>
-    <t>BẢNG LƯƠNG THÁNG 06/2022</t>
-  </si>
-  <si>
-    <t>GHI CHÚ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổng </t>
-  </si>
-  <si>
-    <t>60% Lương</t>
-  </si>
-  <si>
-    <t>70% Lương</t>
-  </si>
-  <si>
-    <t>80% Lương</t>
-  </si>
-  <si>
-    <t>Nhà máy chưa hoạt động đề xuất nhận 60% lương</t>
-  </si>
-  <si>
-    <t>Lương thử việc 6.500.000/ 26 ngày công</t>
   </si>
   <si>
     <t>Công ty TNHH Azadi</t>
@@ -279,7 +206,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="13">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
@@ -291,10 +218,9 @@
     <numFmt numFmtId="172" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0.00"/>
     <numFmt numFmtId="173" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;\-#,##0.00"/>
     <numFmt numFmtId="174" formatCode="&quot;\&quot;#,##0;[Red]&quot;\&quot;\-#,##0"/>
-    <numFmt numFmtId="175" formatCode="00"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -357,17 +283,6 @@
       <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -477,16 +392,8 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,14 +418,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -722,15 +623,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -813,7 +705,7 @@
   <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -832,7 +724,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" applyFont="0" applyBorder="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="169" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="5"/>
@@ -850,168 +742,224 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="37" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="26" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="26" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="20" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1019,170 +967,14 @@
     <xf numFmtId="49" fontId="20" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="28" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="13" fillId="5" borderId="18" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="13" fillId="5" borderId="19" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="13" fillId="5" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="30">
@@ -2476,2694 +2268,2693 @@
   <dimension ref="A1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="32" style="5" customWidth="1"/>
-    <col min="3" max="5" width="8.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="8.109375" style="5" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="6.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="32" style="4" customWidth="1"/>
+    <col min="3" max="5" width="8.109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="8.109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="18.5546875" style="4" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="13.8">
-      <c r="A1" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
+      <c r="A1" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1">
-      <c r="A2" s="111" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="116" t="s">
+      <c r="A2" s="83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="13.8"/>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="13.8"/>
     <row r="6" spans="1:15" ht="22.8">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="8.25" customHeight="1"/>
     <row r="8" spans="1:15">
-      <c r="A8" s="112" t="s">
+      <c r="A8" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="84"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="F9" s="41">
+      <c r="B9" s="61"/>
+      <c r="F9" s="39">
         <v>4680000</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="4.5" customHeight="1">
-      <c r="K10" s="6"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="112"/>
+      <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="K12" s="7"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8" t="s">
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="121" t="s">
+      <c r="A15" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="98" t="s">
+      <c r="C15" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="99"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="99"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="99"/>
-      <c r="N15" s="99"/>
-      <c r="O15" s="125"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="100"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="100"/>
+      <c r="O15" s="71"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="105"/>
-      <c r="B16" s="122"/>
-      <c r="C16" s="44" t="s">
+      <c r="A16" s="92"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="44" t="s">
+      <c r="E16" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="44" t="s">
+      <c r="F16" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="44" t="s">
+      <c r="J16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="44" t="s">
+      <c r="L16" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="44" t="s">
+      <c r="M16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="N16" s="47" t="s">
+      <c r="N16" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="126"/>
+      <c r="O16" s="72"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="83">
+      <c r="A17" s="93">
         <v>1</v>
       </c>
-      <c r="B17" s="100" t="s">
+      <c r="B17" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="45"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="43"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="84"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="94"/>
+      <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>4.8</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <f t="shared" ref="D18:I18" si="0">C18+$O$18</f>
         <v>5.3</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <f t="shared" si="0"/>
         <v>5.8</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <f t="shared" si="0"/>
         <v>6.3</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="11">
         <f t="shared" si="0"/>
         <v>6.8</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <f t="shared" si="0"/>
         <v>7.3</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <f t="shared" si="0"/>
         <v>7.8</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <f>I18+$O$18</f>
         <v>8.3000000000000007</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="11">
         <f>J18+$O$18</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <f>K18+$O$18</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M18" s="11">
         <f>L18+$O$18</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="N18" s="48">
+      <c r="N18" s="46">
         <f>M18+$O$18</f>
         <v>10.3</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O18" s="44">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="85"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="95"/>
+      <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <f t="shared" ref="C19:I19" si="1">C18*$F$9/1000</f>
         <v>22464</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <f t="shared" si="1"/>
         <v>24804</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <f t="shared" si="1"/>
         <v>27144</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <f t="shared" si="1"/>
         <v>29484</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <f t="shared" si="1"/>
         <v>31824</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <f t="shared" si="1"/>
         <v>34164</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="14">
         <f t="shared" si="1"/>
         <v>36504</v>
       </c>
-      <c r="J19" s="15">
+      <c r="J19" s="14">
         <f>J18*$F$9/1000</f>
         <v>38844</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="14">
         <f>K18*$F$9/1000</f>
         <v>41184</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="14">
         <f>L18*$F$9/1000</f>
         <v>43524</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="14">
         <f>M18*$F$9/1000</f>
         <v>45864</v>
       </c>
-      <c r="N19" s="49">
+      <c r="N19" s="47">
         <f>N18*$F$9/1000</f>
         <v>48204</v>
       </c>
-      <c r="O19" s="45"/>
+      <c r="O19" s="43"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="83">
+      <c r="A20" s="93">
         <v>2</v>
       </c>
-      <c r="B20" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="101"/>
-      <c r="O20" s="45"/>
+      <c r="B20" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="89"/>
+      <c r="M20" s="89"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="43"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="84"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="94"/>
+      <c r="B21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <v>4.2</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <f t="shared" ref="D21:I21" si="2">C21+$O$21</f>
         <v>4.6000000000000005</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <f t="shared" si="2"/>
         <v>5.0000000000000009</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <f t="shared" si="2"/>
         <v>5.4000000000000012</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="11">
         <f t="shared" si="2"/>
         <v>5.8000000000000016</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <f t="shared" si="2"/>
         <v>6.200000000000002</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <f t="shared" si="2"/>
         <v>6.6000000000000023</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <f>I21+$O$21</f>
         <v>7.0000000000000027</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <f>J21+$O$21</f>
         <v>7.400000000000003</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <f>K21+$O$21</f>
         <v>7.8000000000000034</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <f>L21+$O$21</f>
         <v>8.2000000000000028</v>
       </c>
-      <c r="N21" s="48">
+      <c r="N21" s="46">
         <f>M21+$O$21</f>
         <v>8.6000000000000032</v>
       </c>
-      <c r="O21" s="46">
+      <c r="O21" s="44">
         <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="85"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="95"/>
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <f t="shared" ref="C22:I22" si="3">C21*$F$9/1000</f>
         <v>19656</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <f t="shared" si="3"/>
         <v>21528.000000000004</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <f t="shared" si="3"/>
         <v>23400.000000000004</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <f t="shared" si="3"/>
         <v>25272.000000000007</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <f t="shared" si="3"/>
         <v>27144.000000000007</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="16">
         <f t="shared" si="3"/>
         <v>29016.000000000007</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="16">
         <f t="shared" si="3"/>
         <v>30888.000000000011</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="16">
         <f>J21*$F$9/1000</f>
         <v>32760.000000000011</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="16">
         <f>K21*$F$9/1000</f>
         <v>34632.000000000015</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="16">
         <f>L21*$F$9/1000</f>
         <v>36504.000000000015</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="16">
         <f>M21*$F$9/1000</f>
         <v>38376.000000000015</v>
       </c>
-      <c r="N22" s="50">
+      <c r="N22" s="48">
         <f>N21*$F$9/1000</f>
         <v>40248.000000000015</v>
       </c>
-      <c r="O22" s="45"/>
+      <c r="O22" s="43"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="83">
+      <c r="A23" s="93">
         <v>3</v>
       </c>
-      <c r="B23" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="101"/>
-      <c r="O23" s="45"/>
+      <c r="B23" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="89"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="89"/>
+      <c r="M23" s="89"/>
+      <c r="N23" s="89"/>
+      <c r="O23" s="43"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="84"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="94"/>
+      <c r="B24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <v>3.8</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <f t="shared" ref="D24:I24" si="4">C24+$O$24</f>
         <v>4.2</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <f t="shared" si="4"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <f t="shared" si="4"/>
         <v>5.0000000000000009</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="11">
         <f t="shared" si="4"/>
         <v>5.4000000000000012</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <f t="shared" si="4"/>
         <v>5.8000000000000016</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="11">
         <f t="shared" si="4"/>
         <v>6.200000000000002</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <f>I24+$O$24</f>
         <v>6.6000000000000023</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="11">
         <f>J24+$O$24</f>
         <v>7.0000000000000027</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <f>K24+$O$24</f>
         <v>7.400000000000003</v>
       </c>
-      <c r="M24" s="12">
+      <c r="M24" s="11">
         <f>L24+$O$24</f>
         <v>7.8000000000000034</v>
       </c>
-      <c r="N24" s="48">
+      <c r="N24" s="46">
         <f>M24+$O$24</f>
         <v>8.2000000000000028</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24" s="44">
         <v>0.4</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="85"/>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="95"/>
+      <c r="B25" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <f t="shared" ref="C25:I25" si="5">C24*$F$9/1000</f>
         <v>17784</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <f t="shared" si="5"/>
         <v>19656</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <f t="shared" si="5"/>
         <v>21528.000000000004</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <f t="shared" si="5"/>
         <v>23400.000000000004</v>
       </c>
-      <c r="G25" s="15">
+      <c r="G25" s="14">
         <f t="shared" si="5"/>
         <v>25272.000000000007</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <f t="shared" si="5"/>
         <v>27144.000000000007</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="14">
         <f t="shared" si="5"/>
         <v>29016.000000000007</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="14">
         <f>J24*$F$9/1000</f>
         <v>30888.000000000011</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="14">
         <f>K24*$F$9/1000</f>
         <v>32760.000000000011</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="14">
         <f>L24*$F$9/1000</f>
         <v>34632.000000000015</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="14">
         <f>M24*$F$9/1000</f>
         <v>36504.000000000015</v>
       </c>
-      <c r="N25" s="49">
+      <c r="N25" s="47">
         <f>N24*$F$9/1000</f>
         <v>38376.000000000015</v>
       </c>
-      <c r="O25" s="45"/>
+      <c r="O25" s="43"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="108"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="108"/>
-      <c r="P27" s="108"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
     </row>
     <row r="28" spans="1:17" ht="15" customHeight="1">
-      <c r="B28" s="18"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="124" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="124"/>
-      <c r="M28" s="124"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="108"/>
-      <c r="P28" s="108"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="121" t="s">
+      <c r="A29" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="109"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="76"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="105"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="44" t="s">
+      <c r="A30" s="92"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="E30" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="44" t="s">
+      <c r="F30" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="44" t="s">
+      <c r="G30" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="44" t="s">
+      <c r="H30" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="44" t="s">
+      <c r="I30" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="44" t="s">
+      <c r="J30" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="44" t="s">
+      <c r="K30" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="44" t="s">
+      <c r="L30" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="44" t="s">
+      <c r="M30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="N30" s="47" t="s">
+      <c r="N30" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O30" s="110"/>
-    </row>
-    <row r="31" spans="1:17" s="23" customFormat="1">
-      <c r="A31" s="113">
+      <c r="O30" s="77"/>
+    </row>
+    <row r="31" spans="1:17" s="22" customFormat="1">
+      <c r="A31" s="85">
         <v>1</v>
       </c>
-      <c r="B31" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="106" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="51"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-    </row>
-    <row r="32" spans="1:17" s="24" customFormat="1">
-      <c r="A32" s="114"/>
-      <c r="B32" s="11" t="s">
+      <c r="B31" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="1:17" s="23" customFormat="1">
+      <c r="A32" s="86"/>
+      <c r="B32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <v>4</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <f t="shared" ref="D32:N32" si="6">C32+$O$32</f>
         <v>4.3</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <f t="shared" si="6"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <f t="shared" si="6"/>
         <v>4.8999999999999995</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G32" s="11">
         <f t="shared" si="6"/>
         <v>5.1999999999999993</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <f t="shared" si="6"/>
         <v>5.4999999999999991</v>
       </c>
-      <c r="I32" s="12">
+      <c r="I32" s="11">
         <f t="shared" si="6"/>
         <v>5.7999999999999989</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <f t="shared" si="6"/>
         <v>6.0999999999999988</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="11">
         <f t="shared" si="6"/>
         <v>6.3999999999999986</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="11">
         <f t="shared" si="6"/>
         <v>6.6999999999999984</v>
       </c>
-      <c r="M32" s="12">
+      <c r="M32" s="11">
         <f t="shared" si="6"/>
         <v>6.9999999999999982</v>
       </c>
-      <c r="N32" s="48">
+      <c r="N32" s="46">
         <f t="shared" si="6"/>
         <v>7.299999999999998</v>
       </c>
-      <c r="O32" s="57">
+      <c r="O32" s="55">
         <v>0.3</v>
       </c>
-      <c r="P32" s="117" t="s">
+      <c r="P32" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="117"/>
-    </row>
-    <row r="33" spans="1:19" s="23" customFormat="1">
-      <c r="A33" s="115"/>
-      <c r="B33" s="16" t="s">
+      <c r="Q32" s="65"/>
+    </row>
+    <row r="33" spans="1:19" s="22" customFormat="1">
+      <c r="A33" s="87"/>
+      <c r="B33" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="16">
         <f t="shared" ref="C33:N33" si="7">C32*$F$9/1000</f>
         <v>18720</v>
       </c>
-      <c r="D33" s="17">
+      <c r="D33" s="16">
         <f t="shared" si="7"/>
         <v>20124</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="16">
         <f t="shared" si="7"/>
         <v>21528</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="16">
         <f t="shared" si="7"/>
         <v>22931.999999999996</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G33" s="16">
         <f t="shared" si="7"/>
         <v>24335.999999999996</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="16">
         <f t="shared" si="7"/>
         <v>25739.999999999996</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="16">
         <f t="shared" si="7"/>
         <v>27143.999999999996</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="16">
         <f t="shared" si="7"/>
         <v>28547.999999999993</v>
       </c>
-      <c r="K33" s="17">
+      <c r="K33" s="16">
         <f t="shared" si="7"/>
         <v>29951.999999999993</v>
       </c>
-      <c r="L33" s="17">
+      <c r="L33" s="16">
         <f t="shared" si="7"/>
         <v>31355.999999999993</v>
       </c>
-      <c r="M33" s="17">
+      <c r="M33" s="16">
         <f t="shared" si="7"/>
         <v>32759.999999999993</v>
       </c>
-      <c r="N33" s="50">
+      <c r="N33" s="48">
         <f t="shared" si="7"/>
         <v>34163.999999999993</v>
       </c>
-      <c r="O33" s="45"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:19" s="23" customFormat="1" ht="31.2" customHeight="1">
-      <c r="A34" s="113">
+      <c r="O33" s="43"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="1:19" s="22" customFormat="1" ht="31.2" customHeight="1">
+      <c r="A34" s="85">
         <v>2</v>
       </c>
-      <c r="B34" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="106" t="s">
+      <c r="B34" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="51"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-    </row>
-    <row r="35" spans="1:19" s="24" customFormat="1">
-      <c r="A35" s="114"/>
-      <c r="B35" s="11" t="s">
+      <c r="D34" s="64"/>
+      <c r="E34" s="64"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="1:19" s="23" customFormat="1">
+      <c r="A35" s="86"/>
+      <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <v>3.95</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <f t="shared" ref="D35:N35" si="8">C35+$O$35</f>
         <v>4.3500000000000005</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <f t="shared" si="8"/>
         <v>4.7500000000000009</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <f t="shared" si="8"/>
         <v>5.1500000000000012</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="11">
         <f t="shared" si="8"/>
         <v>5.5500000000000016</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <f t="shared" si="8"/>
         <v>5.950000000000002</v>
       </c>
-      <c r="I35" s="12">
+      <c r="I35" s="11">
         <f t="shared" si="8"/>
         <v>6.3500000000000023</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <f t="shared" si="8"/>
         <v>6.7500000000000027</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="11">
         <f t="shared" si="8"/>
         <v>7.150000000000003</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <f t="shared" si="8"/>
         <v>7.5500000000000034</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="11">
         <f t="shared" si="8"/>
         <v>7.9500000000000037</v>
       </c>
-      <c r="N35" s="48">
+      <c r="N35" s="46">
         <f t="shared" si="8"/>
         <v>8.3500000000000032</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="44">
         <v>0.4</v>
       </c>
-      <c r="P35" s="117" t="s">
+      <c r="P35" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="Q35" s="117"/>
-    </row>
-    <row r="36" spans="1:19" s="23" customFormat="1">
-      <c r="A36" s="115"/>
-      <c r="B36" s="16" t="s">
+      <c r="Q35" s="65"/>
+    </row>
+    <row r="36" spans="1:19" s="22" customFormat="1">
+      <c r="A36" s="87"/>
+      <c r="B36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="16">
         <f t="shared" ref="C36:N36" si="9">C35*$F$9/1000</f>
         <v>18486</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="16">
         <f t="shared" si="9"/>
         <v>20358.000000000004</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="16">
         <f t="shared" si="9"/>
         <v>22230.000000000004</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <f t="shared" si="9"/>
         <v>24102.000000000007</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G36" s="16">
         <f t="shared" si="9"/>
         <v>25974.000000000007</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="16">
         <f t="shared" si="9"/>
         <v>27846.000000000007</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="16">
         <f t="shared" si="9"/>
         <v>29718.000000000011</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="16">
         <f t="shared" si="9"/>
         <v>31590.000000000011</v>
       </c>
-      <c r="K36" s="17">
+      <c r="K36" s="16">
         <f t="shared" si="9"/>
         <v>33462.000000000015</v>
       </c>
-      <c r="L36" s="17">
+      <c r="L36" s="16">
         <f t="shared" si="9"/>
         <v>35334.000000000015</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="16">
         <f t="shared" si="9"/>
         <v>37206.000000000015</v>
       </c>
-      <c r="N36" s="50">
+      <c r="N36" s="48">
         <f t="shared" si="9"/>
         <v>39078.000000000015</v>
       </c>
-      <c r="O36" s="45"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-    </row>
-    <row r="37" spans="1:19" s="23" customFormat="1" ht="30">
-      <c r="A37" s="113">
+      <c r="O36" s="43"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="1:19" s="22" customFormat="1" ht="30">
+      <c r="A37" s="85">
         <v>3</v>
       </c>
-      <c r="B37" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="106" t="s">
+      <c r="B37" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="51"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-    </row>
-    <row r="38" spans="1:19" s="23" customFormat="1">
-      <c r="A38" s="114"/>
-      <c r="B38" s="11" t="s">
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="1:19" s="22" customFormat="1">
+      <c r="A38" s="86"/>
+      <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <v>3.5</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <f t="shared" ref="D38:N38" si="10">C38+$O$38</f>
         <v>3.8</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <f t="shared" si="10"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <f t="shared" si="10"/>
         <v>4.3999999999999995</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <f t="shared" si="10"/>
         <v>4.6999999999999993</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <f t="shared" si="10"/>
         <v>4.9999999999999991</v>
       </c>
-      <c r="I38" s="12">
+      <c r="I38" s="11">
         <f t="shared" si="10"/>
         <v>5.2999999999999989</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="11">
         <f t="shared" si="10"/>
         <v>5.5999999999999988</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="11">
         <f t="shared" si="10"/>
         <v>5.8999999999999986</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="11">
         <f t="shared" si="10"/>
         <v>6.1999999999999984</v>
       </c>
-      <c r="M38" s="12">
+      <c r="M38" s="11">
         <f t="shared" si="10"/>
         <v>6.4999999999999982</v>
       </c>
-      <c r="N38" s="48">
+      <c r="N38" s="46">
         <f t="shared" si="10"/>
         <v>6.799999999999998</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="44">
         <v>0.3</v>
       </c>
-      <c r="P38" s="117" t="s">
+      <c r="P38" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="Q38" s="117"/>
-    </row>
-    <row r="39" spans="1:19" s="23" customFormat="1">
-      <c r="A39" s="115"/>
-      <c r="B39" s="16" t="s">
+      <c r="Q38" s="65"/>
+    </row>
+    <row r="39" spans="1:19" s="22" customFormat="1">
+      <c r="A39" s="87"/>
+      <c r="B39" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="16">
         <f t="shared" ref="C39:N39" si="11">C38*$F$9/1000</f>
         <v>16380</v>
       </c>
-      <c r="D39" s="17">
+      <c r="D39" s="16">
         <f t="shared" si="11"/>
         <v>17784</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="16">
         <f t="shared" si="11"/>
         <v>19188</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="16">
         <f t="shared" si="11"/>
         <v>20591.999999999996</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G39" s="16">
         <f t="shared" si="11"/>
         <v>21995.999999999996</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="16">
         <f t="shared" si="11"/>
         <v>23399.999999999996</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="16">
         <f t="shared" si="11"/>
         <v>24803.999999999996</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="16">
         <f t="shared" si="11"/>
         <v>26207.999999999993</v>
       </c>
-      <c r="K39" s="17">
+      <c r="K39" s="16">
         <f t="shared" si="11"/>
         <v>27611.999999999993</v>
       </c>
-      <c r="L39" s="17">
+      <c r="L39" s="16">
         <f t="shared" si="11"/>
         <v>29015.999999999993</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="16">
         <f t="shared" si="11"/>
         <v>30419.999999999993</v>
       </c>
-      <c r="N39" s="50">
+      <c r="N39" s="48">
         <f t="shared" si="11"/>
         <v>31823.999999999993</v>
       </c>
-      <c r="O39" s="45"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="5"/>
-    </row>
-    <row r="40" spans="1:19" s="23" customFormat="1">
-      <c r="A40" s="113">
+      <c r="O39" s="43"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="1:19" s="22" customFormat="1">
+      <c r="A40" s="85">
         <v>4</v>
       </c>
-      <c r="B40" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="106" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="107"/>
-      <c r="N40" s="107"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-    </row>
-    <row r="41" spans="1:19" s="23" customFormat="1">
-      <c r="A41" s="114"/>
-      <c r="B41" s="11" t="s">
+      <c r="B40" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="64"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="64"/>
+      <c r="I40" s="64"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" s="22" customFormat="1">
+      <c r="A41" s="86"/>
+      <c r="B41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <v>1.9</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <f t="shared" ref="D41:N41" si="12">C41+$O$41</f>
         <v>2.15</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <f t="shared" si="12"/>
         <v>2.4</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="11">
         <f t="shared" si="12"/>
         <v>2.65</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="11">
         <f t="shared" si="12"/>
         <v>2.9</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <f t="shared" si="12"/>
         <v>3.15</v>
       </c>
-      <c r="I41" s="12">
+      <c r="I41" s="11">
         <f t="shared" si="12"/>
         <v>3.4</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="11">
         <f t="shared" si="12"/>
         <v>3.65</v>
       </c>
-      <c r="K41" s="12">
+      <c r="K41" s="11">
         <f t="shared" si="12"/>
         <v>3.9</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="11">
         <f t="shared" si="12"/>
         <v>4.1500000000000004</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="11">
         <f t="shared" si="12"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="N41" s="48">
+      <c r="N41" s="46">
         <f t="shared" si="12"/>
         <v>4.6500000000000004</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="44">
         <v>0.25</v>
       </c>
-      <c r="P41" s="117" t="s">
+      <c r="P41" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="Q41" s="117"/>
-    </row>
-    <row r="42" spans="1:19" s="23" customFormat="1">
-      <c r="A42" s="115"/>
-      <c r="B42" s="16" t="s">
+      <c r="Q41" s="65"/>
+    </row>
+    <row r="42" spans="1:19" s="22" customFormat="1">
+      <c r="A42" s="87"/>
+      <c r="B42" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="16">
         <f t="shared" ref="C42:N42" si="13">C41*$F$9/1000</f>
         <v>8892</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D42" s="16">
         <f t="shared" si="13"/>
         <v>10062</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="16">
         <f t="shared" si="13"/>
         <v>11232</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <f t="shared" si="13"/>
         <v>12402</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G42" s="16">
         <f t="shared" si="13"/>
         <v>13572</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="16">
         <f t="shared" si="13"/>
         <v>14742</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="16">
         <f t="shared" si="13"/>
         <v>15912</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="16">
         <f t="shared" si="13"/>
         <v>17082</v>
       </c>
-      <c r="K42" s="17">
+      <c r="K42" s="16">
         <f t="shared" si="13"/>
         <v>18252</v>
       </c>
-      <c r="L42" s="17">
+      <c r="L42" s="16">
         <f t="shared" si="13"/>
         <v>19422</v>
       </c>
-      <c r="M42" s="17">
+      <c r="M42" s="16">
         <f t="shared" si="13"/>
         <v>20592</v>
       </c>
-      <c r="N42" s="50">
+      <c r="N42" s="48">
         <f t="shared" si="13"/>
         <v>21762</v>
       </c>
-      <c r="O42" s="45"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-    </row>
-    <row r="43" spans="1:19" s="23" customFormat="1">
-      <c r="A43" s="113">
+      <c r="O42" s="43"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="1:19" s="22" customFormat="1">
+      <c r="A43" s="85">
         <v>5</v>
       </c>
-      <c r="B43" s="95" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="96"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-    </row>
-    <row r="44" spans="1:19" s="23" customFormat="1">
-      <c r="A44" s="114"/>
-      <c r="B44" s="11" t="s">
+      <c r="B43" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="98"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="1:19" s="22" customFormat="1">
+      <c r="A44" s="86"/>
+      <c r="B44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <v>1.5</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <f t="shared" ref="D44:N44" si="14">C44+$O$44</f>
         <v>1.7</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <f t="shared" si="14"/>
         <v>1.9</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <f t="shared" si="14"/>
         <v>2.1</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G44" s="11">
         <f t="shared" si="14"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <f t="shared" si="14"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="I44" s="12">
+      <c r="I44" s="11">
         <f t="shared" si="14"/>
         <v>2.7000000000000006</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="11">
         <f t="shared" si="14"/>
         <v>2.9000000000000008</v>
       </c>
-      <c r="K44" s="12">
+      <c r="K44" s="11">
         <f t="shared" si="14"/>
         <v>3.100000000000001</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="11">
         <f t="shared" si="14"/>
         <v>3.3000000000000012</v>
       </c>
-      <c r="M44" s="12">
+      <c r="M44" s="11">
         <f t="shared" si="14"/>
         <v>3.5000000000000013</v>
       </c>
-      <c r="N44" s="48">
+      <c r="N44" s="46">
         <f t="shared" si="14"/>
         <v>3.7000000000000015</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="44">
         <v>0.2</v>
       </c>
-      <c r="P44" s="26" t="s">
+      <c r="P44" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-    </row>
-    <row r="45" spans="1:19" s="23" customFormat="1">
-      <c r="A45" s="115"/>
-      <c r="B45" s="14" t="s">
+      <c r="Q44" s="25"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+    </row>
+    <row r="45" spans="1:19" s="22" customFormat="1">
+      <c r="A45" s="87"/>
+      <c r="B45" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="14">
         <f t="shared" ref="C45:N45" si="15">C44*$F$9/1000</f>
         <v>7020</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D45" s="14">
         <f t="shared" si="15"/>
         <v>7956</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <f t="shared" si="15"/>
         <v>8892</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="14">
         <f t="shared" si="15"/>
         <v>9828</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <f t="shared" si="15"/>
         <v>10764.000000000002</v>
       </c>
-      <c r="H45" s="15">
+      <c r="H45" s="14">
         <f t="shared" si="15"/>
         <v>11700.000000000002</v>
       </c>
-      <c r="I45" s="15">
+      <c r="I45" s="14">
         <f t="shared" si="15"/>
         <v>12636.000000000004</v>
       </c>
-      <c r="J45" s="15">
+      <c r="J45" s="14">
         <f t="shared" si="15"/>
         <v>13572.000000000004</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="14">
         <f t="shared" si="15"/>
         <v>14508.000000000004</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="14">
         <f t="shared" si="15"/>
         <v>15444.000000000005</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="14">
         <f t="shared" si="15"/>
         <v>16380.000000000005</v>
       </c>
-      <c r="N45" s="49">
+      <c r="N45" s="47">
         <f t="shared" si="15"/>
         <v>17316.000000000007</v>
       </c>
-      <c r="O45" s="45"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-    </row>
-    <row r="46" spans="1:19" s="23" customFormat="1">
-      <c r="A46" s="113">
+      <c r="O45" s="43"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" s="22" customFormat="1">
+      <c r="A46" s="85">
         <v>6</v>
       </c>
-      <c r="B46" s="95" t="s">
-        <v>45</v>
-      </c>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="45"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-    </row>
-    <row r="47" spans="1:19" s="23" customFormat="1">
-      <c r="A47" s="114"/>
-      <c r="B47" s="11" t="s">
+      <c r="B46" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="1:19" s="22" customFormat="1">
+      <c r="A47" s="86"/>
+      <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C47" s="11">
         <v>1.2</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <f t="shared" ref="D47:N47" si="16">C47+$O$47</f>
         <v>1.3</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="11">
         <f t="shared" si="16"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="11">
         <f t="shared" si="16"/>
         <v>1.5000000000000002</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="11">
         <f t="shared" si="16"/>
         <v>1.6000000000000003</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="11">
         <f t="shared" si="16"/>
         <v>1.7000000000000004</v>
       </c>
-      <c r="I47" s="12">
+      <c r="I47" s="11">
         <f t="shared" si="16"/>
         <v>1.8000000000000005</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="11">
         <f t="shared" si="16"/>
         <v>1.9000000000000006</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="11">
         <f t="shared" si="16"/>
         <v>2.0000000000000004</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="11">
         <f t="shared" si="16"/>
         <v>2.1000000000000005</v>
       </c>
-      <c r="M47" s="12">
+      <c r="M47" s="11">
         <f t="shared" si="16"/>
         <v>2.2000000000000006</v>
       </c>
-      <c r="N47" s="48">
+      <c r="N47" s="46">
         <f t="shared" si="16"/>
         <v>2.3000000000000007</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="44">
         <v>0.1</v>
       </c>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-    </row>
-    <row r="48" spans="1:19" s="23" customFormat="1">
-      <c r="A48" s="115"/>
-      <c r="B48" s="14" t="s">
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+    <row r="48" spans="1:19" s="22" customFormat="1">
+      <c r="A48" s="87"/>
+      <c r="B48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="15">
+      <c r="C48" s="14">
         <f t="shared" ref="C48:N48" si="17">C47*$F$9/1000</f>
         <v>5616</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D48" s="14">
         <f t="shared" si="17"/>
         <v>6084</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="14">
         <f t="shared" si="17"/>
         <v>6552.0000000000009</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="14">
         <f t="shared" si="17"/>
         <v>7020.0000000000009</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <f t="shared" si="17"/>
         <v>7488.0000000000018</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="14">
         <f t="shared" si="17"/>
         <v>7956.0000000000018</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="14">
         <f t="shared" si="17"/>
         <v>8424.0000000000018</v>
       </c>
-      <c r="J48" s="15">
+      <c r="J48" s="14">
         <f t="shared" si="17"/>
         <v>8892.0000000000018</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="14">
         <f t="shared" si="17"/>
         <v>9360.0000000000018</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="14">
         <f t="shared" si="17"/>
         <v>9828.0000000000018</v>
       </c>
-      <c r="M48" s="15">
+      <c r="M48" s="14">
         <f t="shared" si="17"/>
         <v>10296.000000000004</v>
       </c>
-      <c r="N48" s="49">
+      <c r="N48" s="47">
         <f t="shared" si="17"/>
         <v>10764.000000000004</v>
       </c>
-      <c r="O48" s="45"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="B49" s="28"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="B50" s="28"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="B51" s="119" t="s">
+      <c r="B51" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-      <c r="L51" s="119"/>
-      <c r="M51" s="119"/>
-      <c r="N51" s="119"/>
-      <c r="O51" s="58"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="56"/>
     </row>
     <row r="52" spans="1:15" ht="15.75" customHeight="1">
-      <c r="B52" s="119"/>
-      <c r="C52" s="119"/>
-      <c r="D52" s="119"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="58"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="74"/>
+      <c r="D52" s="74"/>
+      <c r="E52" s="74"/>
+      <c r="F52" s="74"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="56"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="120" t="s">
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="L53" s="120"/>
-      <c r="M53" s="120"/>
-      <c r="N53" s="9"/>
-      <c r="O53" s="9"/>
+      <c r="L53" s="75"/>
+      <c r="M53" s="75"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54" s="121" t="s">
+      <c r="A54" s="91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="103"/>
-      <c r="I54" s="103"/>
-      <c r="J54" s="103"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="103"/>
-      <c r="M54" s="103"/>
-      <c r="N54" s="103"/>
-      <c r="O54" s="109"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="70"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="76"/>
     </row>
     <row r="55" spans="1:15" ht="15" customHeight="1">
-      <c r="A55" s="105"/>
-      <c r="B55" s="122"/>
-      <c r="C55" s="44" t="s">
+      <c r="A55" s="92"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="44" t="s">
+      <c r="D55" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="44" t="s">
+      <c r="E55" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="44" t="s">
+      <c r="F55" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="44" t="s">
+      <c r="G55" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="44" t="s">
+      <c r="H55" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="44" t="s">
+      <c r="I55" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J55" s="44" t="s">
+      <c r="J55" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K55" s="44" t="s">
+      <c r="K55" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="L55" s="44" t="s">
+      <c r="L55" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="M55" s="44" t="s">
+      <c r="M55" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="N55" s="47" t="s">
+      <c r="N55" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="O55" s="110"/>
+      <c r="O55" s="77"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="83">
+      <c r="A56" s="93">
         <v>1</v>
       </c>
-      <c r="B56" s="86" t="s">
-        <v>46</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="87"/>
-      <c r="G56" s="87"/>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="87"/>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="87"/>
-      <c r="N56" s="88"/>
-      <c r="O56" s="52"/>
+      <c r="B56" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="79"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="79"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="79"/>
+      <c r="I56" s="79"/>
+      <c r="J56" s="79"/>
+      <c r="K56" s="79"/>
+      <c r="L56" s="79"/>
+      <c r="M56" s="79"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="50"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="84"/>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="94"/>
+      <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="12">
+      <c r="C57" s="11">
         <v>3.4</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <f t="shared" ref="D57:N57" si="18">C57+$O$57</f>
         <v>3.6999999999999997</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="11">
         <f t="shared" si="18"/>
         <v>3.9999999999999996</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <f t="shared" si="18"/>
         <v>4.3</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="11">
         <f t="shared" si="18"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <f t="shared" si="18"/>
         <v>4.8999999999999995</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="11">
         <f t="shared" si="18"/>
         <v>5.1999999999999993</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="11">
         <f t="shared" si="18"/>
         <v>5.4999999999999991</v>
       </c>
-      <c r="K57" s="12">
+      <c r="K57" s="11">
         <f t="shared" si="18"/>
         <v>5.7999999999999989</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="11">
         <f t="shared" si="18"/>
         <v>6.0999999999999988</v>
       </c>
-      <c r="M57" s="12">
+      <c r="M57" s="11">
         <f t="shared" si="18"/>
         <v>6.3999999999999986</v>
       </c>
-      <c r="N57" s="48">
+      <c r="N57" s="46">
         <f t="shared" si="18"/>
         <v>6.6999999999999984</v>
       </c>
-      <c r="O57" s="46">
+      <c r="O57" s="44">
         <v>0.3</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="85"/>
-      <c r="B58" s="16" t="s">
+      <c r="A58" s="95"/>
+      <c r="B58" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="16">
         <f t="shared" ref="C58:N58" si="19">C57*$F$9/1000</f>
         <v>15912</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D58" s="16">
         <f t="shared" si="19"/>
         <v>17316</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="16">
         <f t="shared" si="19"/>
         <v>18719.999999999996</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="16">
         <f t="shared" si="19"/>
         <v>20124</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G58" s="16">
         <f t="shared" si="19"/>
         <v>21528</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="16">
         <f t="shared" si="19"/>
         <v>22931.999999999996</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="16">
         <f t="shared" si="19"/>
         <v>24335.999999999996</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="16">
         <f t="shared" si="19"/>
         <v>25739.999999999996</v>
       </c>
-      <c r="K58" s="17">
+      <c r="K58" s="16">
         <f t="shared" si="19"/>
         <v>27143.999999999996</v>
       </c>
-      <c r="L58" s="17">
+      <c r="L58" s="16">
         <f t="shared" si="19"/>
         <v>28547.999999999993</v>
       </c>
-      <c r="M58" s="17">
+      <c r="M58" s="16">
         <f t="shared" si="19"/>
         <v>29951.999999999993</v>
       </c>
-      <c r="N58" s="50">
+      <c r="N58" s="48">
         <f t="shared" si="19"/>
         <v>31355.999999999993</v>
       </c>
-      <c r="O58" s="45"/>
+      <c r="O58" s="43"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="83">
+      <c r="A59" s="93">
         <v>2</v>
       </c>
-      <c r="B59" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="H59" s="87"/>
-      <c r="I59" s="87"/>
-      <c r="J59" s="87"/>
-      <c r="K59" s="87"/>
-      <c r="L59" s="87"/>
-      <c r="M59" s="87"/>
-      <c r="N59" s="88"/>
-      <c r="O59" s="45"/>
+      <c r="B59" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="79"/>
+      <c r="D59" s="79"/>
+      <c r="E59" s="79"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="79"/>
+      <c r="I59" s="79"/>
+      <c r="J59" s="79"/>
+      <c r="K59" s="79"/>
+      <c r="L59" s="79"/>
+      <c r="M59" s="79"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="43"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="84"/>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="94"/>
+      <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="11">
         <v>3</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <f t="shared" ref="D60:N60" si="20">C60+O60</f>
         <v>3.2</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="11">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="11">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="I60" s="12">
+      <c r="I60" s="11">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="11">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="K60" s="12">
+      <c r="K60" s="11">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="11">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="M60" s="12">
+      <c r="M60" s="11">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="N60" s="48">
+      <c r="N60" s="46">
         <f t="shared" si="20"/>
         <v>3.2</v>
       </c>
-      <c r="O60" s="46">
+      <c r="O60" s="44">
         <v>0.2</v>
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="85"/>
-      <c r="B61" s="14" t="s">
+      <c r="A61" s="95"/>
+      <c r="B61" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="14">
         <f t="shared" ref="C61:N61" si="21">C60*$F$9/1000</f>
         <v>14040</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D61" s="14">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="14">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F61" s="14">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="14">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="14">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="I61" s="15">
+      <c r="I61" s="14">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="14">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K61" s="14">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="14">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="M61" s="15">
+      <c r="M61" s="14">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="N61" s="49">
+      <c r="N61" s="47">
         <f t="shared" si="21"/>
         <v>14976</v>
       </c>
-      <c r="O61" s="45"/>
+      <c r="O61" s="43"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="83">
+      <c r="A62" s="93">
         <v>3</v>
       </c>
-      <c r="B62" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="87"/>
-      <c r="M62" s="87"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="52"/>
+      <c r="B62" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="79"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="79"/>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="80"/>
+      <c r="O62" s="50"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="84"/>
-      <c r="B63" s="11" t="s">
+      <c r="A63" s="94"/>
+      <c r="B63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="11">
         <v>2</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="11">
         <f t="shared" ref="D63:N63" si="22">C63+$O$63</f>
         <v>2.1</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="11">
         <f t="shared" si="22"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <f t="shared" si="22"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G63" s="11">
         <f t="shared" si="22"/>
         <v>2.4000000000000004</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <f t="shared" si="22"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="11">
         <f t="shared" si="22"/>
         <v>2.6000000000000005</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="11">
         <f t="shared" si="22"/>
         <v>2.7000000000000006</v>
       </c>
-      <c r="K63" s="12">
+      <c r="K63" s="11">
         <f t="shared" si="22"/>
         <v>2.8000000000000007</v>
       </c>
-      <c r="L63" s="12">
+      <c r="L63" s="11">
         <f t="shared" si="22"/>
         <v>2.9000000000000008</v>
       </c>
-      <c r="M63" s="12">
+      <c r="M63" s="11">
         <f t="shared" si="22"/>
         <v>3.0000000000000009</v>
       </c>
-      <c r="N63" s="48">
+      <c r="N63" s="46">
         <f t="shared" si="22"/>
         <v>3.100000000000001</v>
       </c>
-      <c r="O63" s="46">
+      <c r="O63" s="44">
         <v>0.1</v>
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="85"/>
-      <c r="B64" s="16" t="s">
+      <c r="A64" s="95"/>
+      <c r="B64" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="16">
         <f t="shared" ref="C64:N64" si="23">C63*$F$9/1000</f>
         <v>9360</v>
       </c>
-      <c r="D64" s="17">
+      <c r="D64" s="16">
         <f t="shared" si="23"/>
         <v>9828</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="16">
         <f t="shared" si="23"/>
         <v>10296</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="16">
         <f t="shared" si="23"/>
         <v>10764.000000000002</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G64" s="16">
         <f t="shared" si="23"/>
         <v>11232.000000000002</v>
       </c>
-      <c r="H64" s="17">
+      <c r="H64" s="16">
         <f t="shared" si="23"/>
         <v>11700.000000000002</v>
       </c>
-      <c r="I64" s="17">
+      <c r="I64" s="16">
         <f t="shared" si="23"/>
         <v>12168.000000000002</v>
       </c>
-      <c r="J64" s="17">
+      <c r="J64" s="16">
         <f t="shared" si="23"/>
         <v>12636.000000000004</v>
       </c>
-      <c r="K64" s="17">
+      <c r="K64" s="16">
         <f t="shared" si="23"/>
         <v>13104.000000000004</v>
       </c>
-      <c r="L64" s="17">
+      <c r="L64" s="16">
         <f t="shared" si="23"/>
         <v>13572.000000000004</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="16">
         <f t="shared" si="23"/>
         <v>14040.000000000004</v>
       </c>
-      <c r="N64" s="50">
+      <c r="N64" s="48">
         <f t="shared" si="23"/>
         <v>14508.000000000004</v>
       </c>
-      <c r="O64" s="45"/>
+      <c r="O64" s="43"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="83">
+      <c r="A65" s="93">
         <v>4</v>
       </c>
-      <c r="B65" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="90"/>
-      <c r="L65" s="90"/>
-      <c r="M65" s="90"/>
-      <c r="N65" s="91"/>
-      <c r="O65" s="53"/>
-    </row>
-    <row r="66" spans="1:15" s="30" customFormat="1" ht="15" customHeight="1">
-      <c r="A66" s="84"/>
-      <c r="B66" s="11" t="s">
+      <c r="B65" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="102"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="102"/>
+      <c r="N65" s="103"/>
+      <c r="O65" s="51"/>
+    </row>
+    <row r="66" spans="1:15" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A66" s="94"/>
+      <c r="B66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="11">
         <v>1.5</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="11">
         <f t="shared" ref="D66:N66" si="24">C66+$O$66</f>
         <v>1.7</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="11">
         <f t="shared" si="24"/>
         <v>1.9</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <f t="shared" si="24"/>
         <v>2.1</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G66" s="11">
         <f t="shared" si="24"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="11">
         <f t="shared" si="24"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="I66" s="12">
+      <c r="I66" s="11">
         <f t="shared" si="24"/>
         <v>2.7000000000000006</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="11">
         <f t="shared" si="24"/>
         <v>2.9000000000000008</v>
       </c>
-      <c r="K66" s="12">
+      <c r="K66" s="11">
         <f t="shared" si="24"/>
         <v>3.100000000000001</v>
       </c>
-      <c r="L66" s="12">
+      <c r="L66" s="11">
         <f t="shared" si="24"/>
         <v>3.3000000000000012</v>
       </c>
-      <c r="M66" s="12">
+      <c r="M66" s="11">
         <f t="shared" si="24"/>
         <v>3.5000000000000013</v>
       </c>
-      <c r="N66" s="48">
+      <c r="N66" s="46">
         <f t="shared" si="24"/>
         <v>3.7000000000000015</v>
       </c>
-      <c r="O66" s="46">
+      <c r="O66" s="44">
         <v>0.2</v>
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="85"/>
-      <c r="B67" s="16" t="s">
+      <c r="A67" s="95"/>
+      <c r="B67" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="16">
         <f t="shared" ref="C67:N67" si="25">C66*$F$9/1000</f>
         <v>7020</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="16">
         <f t="shared" si="25"/>
         <v>7956</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="16">
         <f t="shared" si="25"/>
         <v>8892</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="16">
         <f t="shared" si="25"/>
         <v>9828</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G67" s="16">
         <f t="shared" si="25"/>
         <v>10764.000000000002</v>
       </c>
-      <c r="H67" s="17">
+      <c r="H67" s="16">
         <f t="shared" si="25"/>
         <v>11700.000000000002</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="16">
         <f t="shared" si="25"/>
         <v>12636.000000000004</v>
       </c>
-      <c r="J67" s="17">
+      <c r="J67" s="16">
         <f t="shared" si="25"/>
         <v>13572.000000000004</v>
       </c>
-      <c r="K67" s="17">
+      <c r="K67" s="16">
         <f t="shared" si="25"/>
         <v>14508.000000000004</v>
       </c>
-      <c r="L67" s="17">
+      <c r="L67" s="16">
         <f t="shared" si="25"/>
         <v>15444.000000000005</v>
       </c>
-      <c r="M67" s="17">
+      <c r="M67" s="16">
         <f t="shared" si="25"/>
         <v>16380.000000000005</v>
       </c>
-      <c r="N67" s="50">
+      <c r="N67" s="48">
         <f t="shared" si="25"/>
         <v>17316.000000000007</v>
       </c>
-      <c r="O67" s="45"/>
+      <c r="O67" s="43"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="83">
+      <c r="A68" s="93">
         <v>5</v>
       </c>
-      <c r="B68" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="C68" s="93"/>
-      <c r="D68" s="93"/>
-      <c r="E68" s="93"/>
-      <c r="F68" s="93"/>
-      <c r="G68" s="93"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="93"/>
-      <c r="J68" s="93"/>
-      <c r="K68" s="93"/>
-      <c r="L68" s="93"/>
-      <c r="M68" s="93"/>
-      <c r="N68" s="94"/>
-      <c r="O68" s="45"/>
+      <c r="B68" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="105"/>
+      <c r="J68" s="105"/>
+      <c r="K68" s="105"/>
+      <c r="L68" s="105"/>
+      <c r="M68" s="105"/>
+      <c r="N68" s="106"/>
+      <c r="O68" s="43"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="84"/>
-      <c r="B69" s="11" t="s">
+      <c r="A69" s="94"/>
+      <c r="B69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="12">
+      <c r="C69" s="11">
         <v>1.85</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="11">
         <f t="shared" ref="D69:N69" si="26">C69+$O$69</f>
         <v>2.0500000000000003</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="11">
         <f t="shared" si="26"/>
         <v>2.2500000000000004</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <f t="shared" si="26"/>
         <v>2.4500000000000006</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G69" s="11">
         <f t="shared" si="26"/>
         <v>2.6500000000000008</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="11">
         <f t="shared" si="26"/>
         <v>2.850000000000001</v>
       </c>
-      <c r="I69" s="12">
+      <c r="I69" s="11">
         <f t="shared" si="26"/>
         <v>3.0500000000000012</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J69" s="11">
         <f t="shared" si="26"/>
         <v>3.2500000000000013</v>
       </c>
-      <c r="K69" s="12">
+      <c r="K69" s="11">
         <f t="shared" si="26"/>
         <v>3.4500000000000015</v>
       </c>
-      <c r="L69" s="12">
+      <c r="L69" s="11">
         <f t="shared" si="26"/>
         <v>3.6500000000000017</v>
       </c>
-      <c r="M69" s="12">
+      <c r="M69" s="11">
         <f t="shared" si="26"/>
         <v>3.8500000000000019</v>
       </c>
-      <c r="N69" s="48">
+      <c r="N69" s="46">
         <f t="shared" si="26"/>
         <v>4.0500000000000016</v>
       </c>
-      <c r="O69" s="46">
+      <c r="O69" s="44">
         <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="85"/>
-      <c r="B70" s="16" t="s">
+      <c r="A70" s="95"/>
+      <c r="B70" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="16">
         <f t="shared" ref="C70:N70" si="27">C69*$F$9/1000</f>
         <v>8658</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D70" s="16">
         <f t="shared" si="27"/>
         <v>9594.0000000000018</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="16">
         <f t="shared" si="27"/>
         <v>10530.000000000002</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="16">
         <f t="shared" si="27"/>
         <v>11466.000000000004</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G70" s="16">
         <f t="shared" si="27"/>
         <v>12402.000000000004</v>
       </c>
-      <c r="H70" s="17">
+      <c r="H70" s="16">
         <f t="shared" si="27"/>
         <v>13338.000000000004</v>
       </c>
-      <c r="I70" s="17">
+      <c r="I70" s="16">
         <f t="shared" si="27"/>
         <v>14274.000000000005</v>
       </c>
-      <c r="J70" s="17">
+      <c r="J70" s="16">
         <f t="shared" si="27"/>
         <v>15210.000000000005</v>
       </c>
-      <c r="K70" s="17">
+      <c r="K70" s="16">
         <f t="shared" si="27"/>
         <v>16146.000000000007</v>
       </c>
-      <c r="L70" s="17">
+      <c r="L70" s="16">
         <f t="shared" si="27"/>
         <v>17082.000000000007</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M70" s="16">
         <f t="shared" si="27"/>
         <v>18018.000000000007</v>
       </c>
-      <c r="N70" s="50">
+      <c r="N70" s="48">
         <f t="shared" si="27"/>
         <v>18954.000000000007</v>
       </c>
-      <c r="O70" s="45"/>
+      <c r="O70" s="43"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="83">
+      <c r="A71" s="93">
         <v>6</v>
       </c>
-      <c r="B71" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="C71" s="96"/>
-      <c r="D71" s="96"/>
-      <c r="E71" s="96"/>
-      <c r="F71" s="96"/>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="96"/>
-      <c r="L71" s="96"/>
-      <c r="M71" s="96"/>
-      <c r="N71" s="97"/>
-      <c r="O71" s="45"/>
+      <c r="B71" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="97"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="97"/>
+      <c r="M71" s="97"/>
+      <c r="N71" s="98"/>
+      <c r="O71" s="43"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="84"/>
-      <c r="B72" s="31" t="s">
+      <c r="A72" s="94"/>
+      <c r="B72" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="11">
         <v>1.5</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="11">
         <f t="shared" ref="D72:N72" si="28">C72+$O$72</f>
         <v>1.7</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="11">
         <f t="shared" si="28"/>
         <v>1.9</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <f t="shared" si="28"/>
         <v>2.1</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G72" s="11">
         <f t="shared" si="28"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="11">
         <f t="shared" si="28"/>
         <v>2.5000000000000004</v>
       </c>
-      <c r="I72" s="12">
+      <c r="I72" s="11">
         <f t="shared" si="28"/>
         <v>2.7000000000000006</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="11">
         <f t="shared" si="28"/>
         <v>2.9000000000000008</v>
       </c>
-      <c r="K72" s="12">
+      <c r="K72" s="11">
         <f t="shared" si="28"/>
         <v>3.100000000000001</v>
       </c>
-      <c r="L72" s="12">
+      <c r="L72" s="11">
         <f t="shared" si="28"/>
         <v>3.3000000000000012</v>
       </c>
-      <c r="M72" s="12">
+      <c r="M72" s="11">
         <f t="shared" si="28"/>
         <v>3.5000000000000013</v>
       </c>
-      <c r="N72" s="48">
+      <c r="N72" s="46">
         <f t="shared" si="28"/>
         <v>3.7000000000000015</v>
       </c>
-      <c r="O72" s="46">
+      <c r="O72" s="44">
         <v>0.2</v>
       </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="85"/>
-      <c r="B73" s="32" t="s">
+      <c r="A73" s="95"/>
+      <c r="B73" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="14">
         <f t="shared" ref="C73:N73" si="29">C72*$F$9/1000</f>
         <v>7020</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D73" s="14">
         <f t="shared" si="29"/>
         <v>7956</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="14">
         <f t="shared" si="29"/>
         <v>8892</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F73" s="14">
         <f t="shared" si="29"/>
         <v>9828</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="14">
         <f t="shared" si="29"/>
         <v>10764.000000000002</v>
       </c>
-      <c r="H73" s="15">
+      <c r="H73" s="14">
         <f t="shared" si="29"/>
         <v>11700.000000000002</v>
       </c>
-      <c r="I73" s="15">
+      <c r="I73" s="14">
         <f t="shared" si="29"/>
         <v>12636.000000000004</v>
       </c>
-      <c r="J73" s="15">
+      <c r="J73" s="14">
         <f t="shared" si="29"/>
         <v>13572.000000000004</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K73" s="14">
         <f t="shared" si="29"/>
         <v>14508.000000000004</v>
       </c>
-      <c r="L73" s="15">
+      <c r="L73" s="14">
         <f t="shared" si="29"/>
         <v>15444.000000000005</v>
       </c>
-      <c r="M73" s="15">
+      <c r="M73" s="14">
         <f t="shared" si="29"/>
         <v>16380.000000000005</v>
       </c>
-      <c r="N73" s="49">
+      <c r="N73" s="47">
         <f t="shared" si="29"/>
         <v>17316.000000000007</v>
       </c>
-      <c r="O73" s="45"/>
+      <c r="O73" s="43"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="83">
+      <c r="A74" s="93">
         <v>7</v>
       </c>
-      <c r="B74" s="95" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="96"/>
-      <c r="E74" s="96"/>
-      <c r="F74" s="96"/>
-      <c r="G74" s="96"/>
-      <c r="H74" s="96"/>
-      <c r="I74" s="96"/>
-      <c r="J74" s="96"/>
-      <c r="K74" s="96"/>
-      <c r="L74" s="96"/>
-      <c r="M74" s="96"/>
-      <c r="N74" s="97"/>
-      <c r="O74" s="45"/>
+      <c r="B74" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="98"/>
+      <c r="O74" s="43"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="84"/>
-      <c r="B75" s="31" t="s">
+      <c r="A75" s="94"/>
+      <c r="B75" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="11">
         <v>1.2</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="11">
         <f t="shared" ref="D75:N75" si="30">C75+$O$75</f>
         <v>1.4</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="11">
         <f t="shared" si="30"/>
         <v>1.5999999999999999</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <f t="shared" si="30"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G75" s="11">
         <f t="shared" si="30"/>
         <v>1.9999999999999998</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="11">
         <f t="shared" si="30"/>
         <v>2.1999999999999997</v>
       </c>
-      <c r="I75" s="12">
+      <c r="I75" s="11">
         <f t="shared" si="30"/>
         <v>2.4</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J75" s="11">
         <f t="shared" si="30"/>
         <v>2.6</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K75" s="11">
         <f t="shared" si="30"/>
         <v>2.8000000000000003</v>
       </c>
-      <c r="L75" s="12">
+      <c r="L75" s="11">
         <f t="shared" si="30"/>
         <v>3.0000000000000004</v>
       </c>
-      <c r="M75" s="12">
+      <c r="M75" s="11">
         <f t="shared" si="30"/>
         <v>3.2000000000000006</v>
       </c>
-      <c r="N75" s="48">
+      <c r="N75" s="46">
         <f t="shared" si="30"/>
         <v>3.4000000000000008</v>
       </c>
-      <c r="O75" s="46">
+      <c r="O75" s="44">
         <v>0.2</v>
       </c>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="85"/>
-      <c r="B76" s="32" t="s">
+      <c r="A76" s="95"/>
+      <c r="B76" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="14">
         <f t="shared" ref="C76:N76" si="31">C75*$F$9/1000</f>
         <v>5616</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D76" s="14">
         <f t="shared" si="31"/>
         <v>6552</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="14">
         <f t="shared" si="31"/>
         <v>7487.9999999999991</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F76" s="14">
         <f t="shared" si="31"/>
         <v>8424</v>
       </c>
-      <c r="G76" s="15">
+      <c r="G76" s="14">
         <f t="shared" si="31"/>
         <v>9359.9999999999982</v>
       </c>
-      <c r="H76" s="15">
+      <c r="H76" s="14">
         <f t="shared" si="31"/>
         <v>10295.999999999998</v>
       </c>
-      <c r="I76" s="15">
+      <c r="I76" s="14">
         <f t="shared" si="31"/>
         <v>11232</v>
       </c>
-      <c r="J76" s="15">
+      <c r="J76" s="14">
         <f t="shared" si="31"/>
         <v>12168</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K76" s="14">
         <f t="shared" si="31"/>
         <v>13104.000000000002</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L76" s="14">
         <f t="shared" si="31"/>
         <v>14040.000000000002</v>
       </c>
-      <c r="M76" s="15">
+      <c r="M76" s="14">
         <f t="shared" si="31"/>
         <v>14976.000000000004</v>
       </c>
-      <c r="N76" s="49">
+      <c r="N76" s="47">
         <f t="shared" si="31"/>
         <v>15912.000000000004</v>
       </c>
-      <c r="O76" s="45"/>
+      <c r="O76" s="43"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="B77" s="33"/>
-      <c r="C77" s="34"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="34"/>
-      <c r="F77" s="34"/>
-      <c r="G77" s="34"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="34"/>
-      <c r="J77" s="34"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="33"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="C78" s="25"/>
-      <c r="I78" s="123" t="s">
-        <v>52</v>
-      </c>
-      <c r="J78" s="123"/>
-      <c r="K78" s="123"/>
-      <c r="L78" s="123"/>
-      <c r="M78" s="123"/>
-      <c r="N78" s="123"/>
-      <c r="O78" s="35"/>
+      <c r="C78" s="24"/>
+      <c r="I78" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="J78" s="81"/>
+      <c r="K78" s="81"/>
+      <c r="L78" s="81"/>
+      <c r="M78" s="81"/>
+      <c r="N78" s="81"/>
+      <c r="O78" s="34"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="I79" s="118" t="s">
+      <c r="I79" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="J79" s="118"/>
-      <c r="K79" s="118"/>
-      <c r="L79" s="118"/>
-      <c r="M79" s="118"/>
-      <c r="N79" s="118"/>
-      <c r="O79" s="36"/>
+      <c r="J79" s="73"/>
+      <c r="K79" s="73"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="73"/>
+      <c r="N79" s="73"/>
+      <c r="O79" s="35"/>
     </row>
     <row r="85" spans="7:15">
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="118"/>
-      <c r="J85" s="118"/>
-      <c r="K85" s="118"/>
-      <c r="L85" s="118"/>
-      <c r="M85" s="118"/>
-      <c r="N85" s="118"/>
-      <c r="O85" s="36"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="73"/>
+      <c r="J85" s="73"/>
+      <c r="K85" s="73"/>
+      <c r="L85" s="73"/>
+      <c r="M85" s="73"/>
+      <c r="N85" s="73"/>
+      <c r="O85" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C34:N34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="C37:N37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:N29"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I85:N85"/>
-    <mergeCell ref="B51:N52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="O54:O55"/>
-    <mergeCell ref="B62:N62"/>
-    <mergeCell ref="B59:N59"/>
-    <mergeCell ref="I78:N78"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C15:N15"/>
+    <mergeCell ref="B17:N17"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B43:N43"/>
+    <mergeCell ref="B46:N46"/>
+    <mergeCell ref="C54:N54"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B56:N56"/>
     <mergeCell ref="C40:N40"/>
     <mergeCell ref="O26:P28"/>
     <mergeCell ref="O29:O30"/>
@@ -5180,29 +4971,30 @@
     <mergeCell ref="C31:N31"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B43:N43"/>
-    <mergeCell ref="B46:N46"/>
-    <mergeCell ref="C54:N54"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A43:A45"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C15:N15"/>
-    <mergeCell ref="B17:N17"/>
-    <mergeCell ref="B56:N56"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I85:N85"/>
+    <mergeCell ref="B51:N52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="O54:O55"/>
+    <mergeCell ref="B62:N62"/>
+    <mergeCell ref="B59:N59"/>
+    <mergeCell ref="I78:N78"/>
     <mergeCell ref="B65:N65"/>
     <mergeCell ref="B68:N68"/>
     <mergeCell ref="B71:N71"/>
     <mergeCell ref="B74:N74"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="C34:N34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:N29"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P32:Q32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.15" right="0.15" top="0.49" bottom="0.52" header="0.25" footer="0.25"/>
@@ -5215,377 +5007,4 @@
     <brk id="50" min="1" max="14" man="1"/>
   </rowBreaks>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="13.8">
-      <c r="A1" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="133" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.399999999999999">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="127" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="140" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="140" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="127" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="127" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="130" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.6">
-      <c r="A7" s="128"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="131"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.6">
-      <c r="A8" s="129"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="132"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6">
-      <c r="A9" s="66">
-        <v>1</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="71">
-        <v>17472000</v>
-      </c>
-      <c r="E9" s="70">
-        <f>(D9*60)/100</f>
-        <v>10483200</v>
-      </c>
-      <c r="F9" s="72">
-        <f>(D9*70)/100</f>
-        <v>12230400</v>
-      </c>
-      <c r="G9" s="72">
-        <f>D9*80/100</f>
-        <v>13977600</v>
-      </c>
-      <c r="H9" s="136" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.6">
-      <c r="A10" s="66">
-        <v>2</v>
-      </c>
-      <c r="B10" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="71">
-        <v>15288000</v>
-      </c>
-      <c r="E10" s="70">
-        <f t="shared" ref="E10:E15" si="0">(D10*60)/100</f>
-        <v>9172800</v>
-      </c>
-      <c r="F10" s="72">
-        <f t="shared" ref="F10:F15" si="1">(D10*70)/100</f>
-        <v>10701600</v>
-      </c>
-      <c r="G10" s="72">
-        <f t="shared" ref="G10:G15" si="2">D10*80/100</f>
-        <v>12230400</v>
-      </c>
-      <c r="H10" s="137"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6">
-      <c r="A11" s="66">
-        <v>3</v>
-      </c>
-      <c r="B11" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="71">
-        <v>12740000</v>
-      </c>
-      <c r="E11" s="70">
-        <f t="shared" si="0"/>
-        <v>7644000</v>
-      </c>
-      <c r="F11" s="72">
-        <f t="shared" si="1"/>
-        <v>8918000</v>
-      </c>
-      <c r="G11" s="72">
-        <f t="shared" si="2"/>
-        <v>10192000</v>
-      </c>
-      <c r="H11" s="137"/>
-      <c r="I11" s="65"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6">
-      <c r="A12" s="66">
-        <v>4</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="71">
-        <v>14378000</v>
-      </c>
-      <c r="E12" s="70">
-        <f t="shared" si="0"/>
-        <v>8626800</v>
-      </c>
-      <c r="F12" s="72">
-        <f t="shared" si="1"/>
-        <v>10064600</v>
-      </c>
-      <c r="G12" s="72">
-        <f t="shared" si="2"/>
-        <v>11502400</v>
-      </c>
-      <c r="H12" s="137"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.6">
-      <c r="A13" s="66">
-        <v>5</v>
-      </c>
-      <c r="B13" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" s="71">
-        <v>14378000</v>
-      </c>
-      <c r="E13" s="70">
-        <f t="shared" si="0"/>
-        <v>8626800</v>
-      </c>
-      <c r="F13" s="72">
-        <f t="shared" si="1"/>
-        <v>10064600</v>
-      </c>
-      <c r="G13" s="72">
-        <f t="shared" si="2"/>
-        <v>11502400</v>
-      </c>
-      <c r="H13" s="138"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.6">
-      <c r="A14" s="66">
-        <v>7</v>
-      </c>
-      <c r="B14" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="71">
-        <v>6916000</v>
-      </c>
-      <c r="E14" s="70">
-        <f t="shared" si="0"/>
-        <v>4149600</v>
-      </c>
-      <c r="F14" s="72">
-        <f t="shared" si="1"/>
-        <v>4841200</v>
-      </c>
-      <c r="G14" s="72">
-        <f t="shared" si="2"/>
-        <v>5532800</v>
-      </c>
-      <c r="H14" s="74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="66">
-        <v>8</v>
-      </c>
-      <c r="B15" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="68" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="71">
-        <v>6916000</v>
-      </c>
-      <c r="E15" s="70">
-        <f t="shared" si="0"/>
-        <v>4149600</v>
-      </c>
-      <c r="F15" s="72">
-        <f t="shared" si="1"/>
-        <v>4841200</v>
-      </c>
-      <c r="G15" s="72">
-        <f t="shared" si="2"/>
-        <v>5532800</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.6">
-      <c r="A16" s="81">
-        <v>9</v>
-      </c>
-      <c r="B16" s="139" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="139"/>
-      <c r="D16" s="82">
-        <f>SUM(D9:D15)</f>
-        <v>88088000</v>
-      </c>
-      <c r="E16" s="82">
-        <f>SUM(E9:E15)</f>
-        <v>52852800</v>
-      </c>
-      <c r="F16" s="82">
-        <f>SUM(F9:F15)</f>
-        <v>61661600</v>
-      </c>
-      <c r="G16" s="82">
-        <f>SUM(G9:G15)</f>
-        <v>70470400</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="H9:H13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
 </file>